--- a/Permutations on Naive Bayes v2.xlsx
+++ b/Permutations on Naive Bayes v2.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danjohnson/Dropbox/Coding_Tools/R_Environment/R_Projects/ta_comments_FLC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E2F979-9CF4-8A4C-A555-65D255395FB0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F024D7D4-1610-BF4E-B0EA-4B69624B602F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="460" windowWidth="23760" windowHeight="14620" xr2:uid="{B7B60B25-3346-AA41-8F11-08780999C924}"/>
+    <workbookView xWindow="1560" yWindow="460" windowWidth="23760" windowHeight="14620" activeTab="1" xr2:uid="{B7B60B25-3346-AA41-8F11-08780999C924}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="60">
   <si>
     <t>Category</t>
   </si>
@@ -193,6 +194,18 @@
   </si>
   <si>
     <t>N-gram</t>
+  </si>
+  <si>
+    <t>1 to 4</t>
+  </si>
+  <si>
+    <t>1 to 7</t>
+  </si>
+  <si>
+    <t>Randomizer</t>
+  </si>
+  <si>
+    <t>outgroup</t>
   </si>
 </sst>
 </file>
@@ -326,7 +339,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -416,6 +429,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -735,8 +771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{476E9E41-8852-AB4B-8EA4-41A30F6F67DB}">
   <dimension ref="A1:BN72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="V33" sqref="V33"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -865,8 +901,8 @@
       <c r="I3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="7">
-        <v>4</v>
+      <c r="J3" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>13</v>
@@ -918,8 +954,8 @@
       <c r="I4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="10">
-        <v>4</v>
+      <c r="J4" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="K4" s="11"/>
       <c r="L4" s="4" t="s">
@@ -989,8 +1025,8 @@
       <c r="I5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="7">
-        <v>4</v>
+      <c r="J5" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>25</v>
@@ -1048,8 +1084,8 @@
       <c r="I6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="7">
-        <v>4</v>
+      <c r="J6" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>25</v>
@@ -1121,8 +1157,8 @@
       <c r="I7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="7">
-        <v>4</v>
+      <c r="J7" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="L7" s="16" t="s">
         <v>13</v>
@@ -1178,8 +1214,8 @@
       <c r="I8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="7">
-        <v>4</v>
+      <c r="J8" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="L8" s="16" t="s">
         <v>25</v>
@@ -1237,8 +1273,8 @@
       <c r="I9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="7">
-        <v>4</v>
+      <c r="J9" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="L9" s="17" t="s">
         <v>13</v>
@@ -1296,8 +1332,8 @@
       <c r="I10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J10" s="7">
-        <v>4</v>
+      <c r="J10" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="L10" s="17" t="s">
         <v>25</v>
@@ -1417,8 +1453,8 @@
       <c r="I13" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J13" s="7">
-        <v>7</v>
+      <c r="J13" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="L13" s="4" t="s">
         <v>13</v>
@@ -1476,8 +1512,8 @@
       <c r="I14" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="10">
-        <v>7</v>
+      <c r="J14" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="K14" s="11"/>
       <c r="L14" s="4" t="s">
@@ -1537,8 +1573,8 @@
       <c r="I15" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J15" s="7">
-        <v>7</v>
+      <c r="J15" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="K15" s="11"/>
       <c r="L15" s="4" t="s">
@@ -1600,8 +1636,8 @@
       <c r="I16" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J16" s="7">
-        <v>7</v>
+      <c r="J16" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="K16" s="11"/>
       <c r="L16" s="4" t="s">
@@ -1663,8 +1699,8 @@
       <c r="I17" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J17" s="7">
-        <v>7</v>
+      <c r="J17" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="L17" s="16" t="s">
         <v>13</v>
@@ -1725,8 +1761,8 @@
       <c r="I18" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J18" s="7">
-        <v>7</v>
+      <c r="J18" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="L18" s="16" t="s">
         <v>25</v>
@@ -1787,8 +1823,8 @@
       <c r="I19" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J19" s="7">
-        <v>7</v>
+      <c r="J19" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="L19" s="17" t="s">
         <v>13</v>
@@ -1843,8 +1879,8 @@
       <c r="I20" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J20" s="7">
-        <v>7</v>
+      <c r="J20" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="L20" s="17" t="s">
         <v>25</v>
@@ -3170,4 +3206,2260 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0A56A4B-71A9-6443-8137-5871BE1D39C9}">
+  <dimension ref="A1:BM71"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="6"/>
+    <col min="2" max="2" width="10.83203125" style="7"/>
+    <col min="3" max="3" width="7.1640625" style="7" customWidth="1"/>
+    <col min="4" max="8" width="10.83203125" style="7"/>
+    <col min="9" max="9" width="16.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5" style="6" customWidth="1"/>
+    <col min="11" max="12" width="10.83203125" style="7"/>
+    <col min="13" max="17" width="10.83203125" style="6"/>
+    <col min="18" max="18" width="12.33203125" style="6" customWidth="1"/>
+    <col min="19" max="20" width="10.83203125" style="6"/>
+    <col min="21" max="21" width="9" style="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="10.83203125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:40" s="41" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="V1" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="W1" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="43"/>
+      <c r="AC1" s="44"/>
+      <c r="AD1" s="44"/>
+      <c r="AE1" s="44"/>
+      <c r="AF1" s="44"/>
+      <c r="AG1" s="44"/>
+      <c r="AH1" s="44"/>
+      <c r="AI1" s="44"/>
+      <c r="AJ1" s="44"/>
+      <c r="AK1" s="44"/>
+      <c r="AL1" s="44"/>
+      <c r="AM1" s="44"/>
+      <c r="AN1" s="44"/>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="7">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="8">
+        <v>0.8004</v>
+      </c>
+      <c r="L2" s="9">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="M2" s="9">
+        <v>0.73</v>
+      </c>
+      <c r="N2" s="8">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="O2" s="9">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+    </row>
+    <row r="3" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="10">
+        <v>123</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="12">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="L3" s="13">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="M3" s="13">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="N3" s="12">
+        <v>0.91100000000000003</v>
+      </c>
+      <c r="O3" s="13">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="6"/>
+      <c r="AH3" s="6"/>
+      <c r="AI3" s="6"/>
+      <c r="AJ3" s="6"/>
+    </row>
+    <row r="4" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="10">
+        <v>130</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="12">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="L4" s="13">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="M4" s="13">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="N4" s="12">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="O4" s="13">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="36"/>
+      <c r="X4" s="36"/>
+      <c r="Y4" s="36"/>
+      <c r="Z4" s="36"/>
+      <c r="AA4" s="36"/>
+      <c r="AB4" s="36"/>
+      <c r="AC4" s="36"/>
+      <c r="AD4" s="36"/>
+    </row>
+    <row r="5" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="10">
+        <v>156</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="12">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="L5" s="14">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="M5" s="13">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="N5" s="12">
+        <v>0.873</v>
+      </c>
+      <c r="O5" s="13">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="37"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="36"/>
+      <c r="Y5" s="36"/>
+      <c r="Z5" s="36"/>
+      <c r="AA5" s="36"/>
+      <c r="AB5" s="36"/>
+      <c r="AC5" s="36"/>
+      <c r="AD5" s="36"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="6"/>
+      <c r="AG5" s="6"/>
+      <c r="AH5" s="6"/>
+      <c r="AI5" s="6"/>
+      <c r="AJ5" s="6"/>
+      <c r="AK5" s="6"/>
+      <c r="AL5" s="6"/>
+      <c r="AM5" s="6"/>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0</v>
+      </c>
+      <c r="C6" s="16">
+        <v>2</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="9">
+        <v>0.6835</v>
+      </c>
+      <c r="L6" s="8">
+        <v>0.68</v>
+      </c>
+      <c r="M6" s="9">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="N6" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="O6" s="9">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="36"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="36"/>
+      <c r="Y6" s="36"/>
+      <c r="Z6" s="36"/>
+      <c r="AA6" s="36"/>
+      <c r="AB6" s="36"/>
+      <c r="AC6" s="36"/>
+      <c r="AD6" s="36"/>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="7">
+        <v>123</v>
+      </c>
+      <c r="C7" s="16">
+        <v>2</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="9">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="L7" s="9">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="M7" s="9">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="N7" s="9">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="O7" s="9">
+        <v>0.624</v>
+      </c>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="36"/>
+      <c r="W7" s="36"/>
+      <c r="X7" s="36"/>
+      <c r="Y7" s="36"/>
+      <c r="Z7" s="36"/>
+      <c r="AA7" s="36"/>
+      <c r="AB7" s="36"/>
+      <c r="AC7" s="36"/>
+      <c r="AD7" s="36"/>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="7">
+        <v>0</v>
+      </c>
+      <c r="C8" s="17">
+        <v>3</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="9">
+        <v>0.6099</v>
+      </c>
+      <c r="L8" s="9">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="M8" s="8">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="N8" s="9">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="O8" s="8">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="36"/>
+      <c r="U8" s="36"/>
+      <c r="V8" s="36"/>
+      <c r="W8" s="36"/>
+      <c r="X8" s="36"/>
+      <c r="Y8" s="36"/>
+      <c r="Z8" s="36"/>
+      <c r="AA8" s="36"/>
+      <c r="AB8" s="36"/>
+      <c r="AC8" s="36"/>
+      <c r="AD8" s="36"/>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="7">
+        <v>123</v>
+      </c>
+      <c r="C9" s="17">
+        <v>3</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="9">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="L9" s="9">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="M9" s="8">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="N9" s="9">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="O9" s="8">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="38"/>
+      <c r="U9" s="36"/>
+      <c r="V9" s="36"/>
+      <c r="W9" s="36"/>
+      <c r="X9" s="36"/>
+      <c r="Y9" s="36"/>
+      <c r="Z9" s="36"/>
+      <c r="AA9" s="36"/>
+      <c r="AB9" s="36"/>
+      <c r="AC9" s="36"/>
+      <c r="AD9" s="36"/>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="7">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="P10" s="9">
+        <v>0.59140000000000004</v>
+      </c>
+      <c r="Q10" s="25">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="R10" s="26">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="S10" s="9">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="T10" s="26">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="U10" s="25">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="V10" s="25">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="W10" s="36"/>
+      <c r="X10" s="36"/>
+      <c r="Y10" s="36"/>
+      <c r="Z10" s="36"/>
+      <c r="AA10" s="36"/>
+      <c r="AB10" s="36"/>
+      <c r="AC10" s="36"/>
+      <c r="AD10" s="36"/>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="10">
+        <v>123</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="P11" s="13">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="Q11" s="14">
+        <v>0.114</v>
+      </c>
+      <c r="R11" s="13">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="S11" s="13">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="T11" s="13">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="U11" s="14">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="V11" s="14">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="W11" s="36"/>
+      <c r="X11" s="11"/>
+      <c r="Y11" s="36"/>
+      <c r="Z11" s="36"/>
+      <c r="AA11" s="36"/>
+      <c r="AB11" s="36"/>
+      <c r="AC11" s="36"/>
+      <c r="AD11" s="36"/>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="10">
+        <v>130</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="P12" s="13">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="Q12" s="14">
+        <v>0.128</v>
+      </c>
+      <c r="R12" s="13">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="S12" s="13">
+        <v>0.625</v>
+      </c>
+      <c r="T12" s="13">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="U12" s="14">
+        <v>0.28299999999999997</v>
+      </c>
+      <c r="V12" s="14">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="W12" s="36"/>
+      <c r="X12" s="36"/>
+      <c r="Y12" s="36"/>
+      <c r="Z12" s="36"/>
+      <c r="AA12" s="36"/>
+      <c r="AB12" s="36"/>
+      <c r="AC12" s="36"/>
+      <c r="AD12" s="36"/>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="10">
+        <v>156</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="P13" s="13">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="Q13" s="14">
+        <v>0.13</v>
+      </c>
+      <c r="R13" s="13">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="S13" s="13">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="T13" s="13">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="U13" s="14">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="V13" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="W13" s="36"/>
+      <c r="X13" s="36"/>
+      <c r="Y13" s="36"/>
+      <c r="Z13" s="36"/>
+      <c r="AA13" s="36"/>
+      <c r="AB13" s="36"/>
+      <c r="AC13" s="36"/>
+      <c r="AD13" s="36"/>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="7">
+        <v>0</v>
+      </c>
+      <c r="C14" s="16">
+        <v>2</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="P14" s="26">
+        <v>0.63249999999999995</v>
+      </c>
+      <c r="Q14" s="29">
+        <v>1</v>
+      </c>
+      <c r="R14" s="25">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="S14" s="9">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="T14" s="9">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="U14" s="25">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="V14" s="25">
+        <v>0.25</v>
+      </c>
+      <c r="W14" s="36"/>
+      <c r="X14" s="36"/>
+      <c r="Y14" s="36"/>
+      <c r="Z14" s="36"/>
+      <c r="AA14" s="36"/>
+      <c r="AB14" s="36"/>
+      <c r="AC14" s="36"/>
+      <c r="AD14" s="36"/>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="7">
+        <v>123</v>
+      </c>
+      <c r="C15" s="16">
+        <v>2</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J15" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="P15" s="9">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="Q15" s="28">
+        <v>0</v>
+      </c>
+      <c r="R15" s="9">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="S15" s="9">
+        <v>0.64300000000000002</v>
+      </c>
+      <c r="T15" s="9">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="U15" s="25">
+        <v>0.308</v>
+      </c>
+      <c r="V15" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="W15" s="36"/>
+      <c r="X15" s="36"/>
+      <c r="Y15" s="36"/>
+      <c r="Z15" s="36"/>
+      <c r="AA15" s="36"/>
+      <c r="AB15" s="36"/>
+      <c r="AC15" s="36"/>
+      <c r="AD15" s="36"/>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="7">
+        <v>0</v>
+      </c>
+      <c r="C16" s="17">
+        <v>3</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J16" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="P16" s="25">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="Q16" s="27">
+        <v>0</v>
+      </c>
+      <c r="R16" s="9">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="S16" s="8">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="T16" s="25">
+        <v>0.437</v>
+      </c>
+      <c r="U16" s="25">
+        <v>0.214</v>
+      </c>
+      <c r="V16" s="27">
+        <v>0</v>
+      </c>
+      <c r="W16" s="36"/>
+      <c r="X16" s="36"/>
+      <c r="Y16" s="36"/>
+      <c r="Z16" s="36"/>
+      <c r="AA16" s="36"/>
+      <c r="AB16" s="36"/>
+      <c r="AC16" s="36"/>
+      <c r="AD16" s="36"/>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="7">
+        <v>123</v>
+      </c>
+      <c r="C17" s="17">
+        <v>3</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J17" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="P17" s="25">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="Q17" s="28">
+        <v>0</v>
+      </c>
+      <c r="R17" s="9">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="S17" s="9">
+        <v>0.78</v>
+      </c>
+      <c r="T17" s="25">
+        <v>0.443</v>
+      </c>
+      <c r="U17" s="25">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="V17" s="27">
+        <v>1</v>
+      </c>
+      <c r="W17" s="36"/>
+      <c r="X17" s="36"/>
+      <c r="Y17" s="36"/>
+      <c r="Z17" s="36"/>
+      <c r="AA17" s="36"/>
+      <c r="AB17" s="36"/>
+      <c r="AC17" s="36"/>
+      <c r="AD17" s="36"/>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="7">
+        <v>123</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" s="8">
+        <v>0.84</v>
+      </c>
+      <c r="L18" s="6"/>
+      <c r="N18" s="8">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="S18" s="36"/>
+      <c r="T18" s="37"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="36"/>
+      <c r="W18" s="8">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="Z18" s="36"/>
+      <c r="AA18" s="36"/>
+      <c r="AB18" s="36"/>
+      <c r="AC18" s="36"/>
+      <c r="AD18" s="36"/>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="10">
+        <v>130</v>
+      </c>
+      <c r="C19" s="4">
+        <v>1</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" s="12">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="L19" s="6"/>
+      <c r="N19" s="12">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="S19" s="36"/>
+      <c r="T19" s="36"/>
+      <c r="U19" s="36"/>
+      <c r="V19" s="36"/>
+      <c r="W19" s="12">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="Z19" s="36"/>
+      <c r="AA19" s="36"/>
+      <c r="AB19" s="36"/>
+      <c r="AC19" s="36"/>
+      <c r="AD19" s="36"/>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="7">
+        <v>123</v>
+      </c>
+      <c r="C20" s="16">
+        <v>2</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="J20" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="K20" s="9">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="L20" s="6"/>
+      <c r="N20" s="9">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="S20" s="36"/>
+      <c r="T20" s="36"/>
+      <c r="U20" s="36"/>
+      <c r="V20" s="36"/>
+      <c r="W20" s="8">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="Z20" s="10"/>
+      <c r="AA20" s="10"/>
+      <c r="AB20" s="10"/>
+      <c r="AC20" s="36"/>
+      <c r="AD20" s="36"/>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="7">
+        <v>130</v>
+      </c>
+      <c r="C21" s="16">
+        <v>2</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="J21" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="K21" s="9">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="L21" s="6"/>
+      <c r="N21" s="9">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="S21" s="36"/>
+      <c r="T21" s="30"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="36"/>
+      <c r="W21" s="8">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="Z21" s="26"/>
+      <c r="AA21" s="26"/>
+      <c r="AB21" s="26"/>
+      <c r="AC21" s="29"/>
+      <c r="AD21" s="29"/>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="7">
+        <v>123</v>
+      </c>
+      <c r="C22" s="17">
+        <v>3</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="J22" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="K22" s="9">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="L22" s="6"/>
+      <c r="N22" s="9">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="S22" s="36"/>
+      <c r="T22" s="39"/>
+      <c r="U22" s="38"/>
+      <c r="V22" s="36"/>
+      <c r="W22" s="8">
+        <v>0.86299999999999999</v>
+      </c>
+      <c r="Z22" s="26"/>
+      <c r="AA22" s="26"/>
+      <c r="AB22" s="26"/>
+      <c r="AC22" s="29"/>
+      <c r="AD22" s="29"/>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="7">
+        <v>130</v>
+      </c>
+      <c r="C23" s="17">
+        <v>3</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="J23" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="K23" s="9">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="9">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="O23" s="36"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="36"/>
+      <c r="R23" s="36"/>
+      <c r="S23" s="36"/>
+      <c r="T23" s="39"/>
+      <c r="U23" s="38"/>
+      <c r="V23" s="36"/>
+      <c r="W23" s="8">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="AD23" s="29"/>
+    </row>
+    <row r="24" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="7">
+        <v>123</v>
+      </c>
+      <c r="C24" s="4">
+        <v>1</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
+      <c r="P24" s="7">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="36"/>
+      <c r="T24" s="7">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="U24" s="40"/>
+      <c r="V24" s="36"/>
+      <c r="W24" s="7">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="6"/>
+      <c r="AA24" s="6"/>
+      <c r="AB24" s="6"/>
+      <c r="AC24" s="6"/>
+      <c r="AD24" s="36"/>
+      <c r="AE24" s="6"/>
+      <c r="AF24" s="6"/>
+      <c r="AG24" s="6"/>
+      <c r="AH24" s="6"/>
+      <c r="AI24" s="6"/>
+      <c r="AJ24" s="6"/>
+    </row>
+    <row r="25" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="10">
+        <v>130</v>
+      </c>
+      <c r="C25" s="4">
+        <v>1</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="10">
+        <v>0.72</v>
+      </c>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="36"/>
+      <c r="T25" s="10">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="U25" s="36"/>
+      <c r="V25" s="36"/>
+      <c r="W25" s="31">
+        <v>0.752</v>
+      </c>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="6"/>
+      <c r="AA25" s="6"/>
+      <c r="AB25" s="6"/>
+      <c r="AC25" s="6"/>
+      <c r="AD25" s="10"/>
+      <c r="AE25" s="6"/>
+      <c r="AF25" s="6"/>
+      <c r="AG25" s="6"/>
+      <c r="AH25" s="6"/>
+      <c r="AI25" s="6"/>
+      <c r="AJ25" s="6"/>
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="7">
+        <v>123</v>
+      </c>
+      <c r="C26" s="16">
+        <v>2</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J26" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="7">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="Q26" s="36"/>
+      <c r="R26" s="36"/>
+      <c r="S26" s="36"/>
+      <c r="T26" s="7">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="U26" s="36"/>
+      <c r="V26" s="36"/>
+      <c r="W26" s="7">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="AD26" s="26"/>
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="7">
+        <v>130</v>
+      </c>
+      <c r="C27" s="16">
+        <v>2</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I27" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J27" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="7">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="Q27" s="36"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="36"/>
+      <c r="T27" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="U27" s="36"/>
+      <c r="V27" s="36"/>
+      <c r="W27" s="7">
+        <v>0.68300000000000005</v>
+      </c>
+      <c r="AC27" s="26"/>
+      <c r="AD27" s="26"/>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="7">
+        <v>123</v>
+      </c>
+      <c r="C28" s="17">
+        <v>3</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I28" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J28" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="P28" s="7">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="S28" s="36"/>
+      <c r="T28" s="32">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="U28" s="36"/>
+      <c r="V28" s="36"/>
+      <c r="W28" s="7">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="AC28" s="26"/>
+      <c r="AD28" s="29"/>
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="7">
+        <v>130</v>
+      </c>
+      <c r="C29" s="17">
+        <v>3</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J29" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="P29" s="7">
+        <v>0.627</v>
+      </c>
+      <c r="S29" s="36"/>
+      <c r="T29" s="7">
+        <v>0.746</v>
+      </c>
+      <c r="U29" s="36"/>
+      <c r="V29" s="36"/>
+      <c r="W29" s="7">
+        <v>0.62</v>
+      </c>
+      <c r="AC29" s="36"/>
+      <c r="AD29" s="36"/>
+    </row>
+    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="J30" s="36"/>
+      <c r="K30" s="38"/>
+    </row>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="J31" s="10"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="6"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="36"/>
+      <c r="Q31" s="36"/>
+      <c r="R31" s="36"/>
+      <c r="S31" s="36"/>
+      <c r="T31" s="36"/>
+    </row>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="J32" s="10"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="6"/>
+      <c r="O32" s="36"/>
+      <c r="P32" s="36"/>
+      <c r="Q32" s="36"/>
+      <c r="R32" s="36"/>
+      <c r="S32" s="36"/>
+      <c r="T32" s="36"/>
+    </row>
+    <row r="33" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="6"/>
+      <c r="O33" s="36"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="36"/>
+    </row>
+    <row r="34" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="O34" s="36"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="26"/>
+      <c r="R34" s="26"/>
+      <c r="S34" s="26"/>
+      <c r="T34" s="36"/>
+    </row>
+    <row r="35" spans="1:65" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="38"/>
+      <c r="Q35" s="26"/>
+      <c r="R35" s="26"/>
+      <c r="S35" s="26"/>
+      <c r="T35" s="36"/>
+      <c r="U35" s="6"/>
+      <c r="V35" s="6"/>
+      <c r="W35" s="6"/>
+      <c r="X35" s="6"/>
+      <c r="Y35" s="6"/>
+      <c r="Z35" s="6"/>
+      <c r="AA35" s="6"/>
+      <c r="AB35" s="6"/>
+      <c r="AC35" s="6"/>
+      <c r="AD35" s="6"/>
+      <c r="AE35" s="6"/>
+      <c r="AF35" s="6"/>
+      <c r="AG35" s="6"/>
+      <c r="AH35" s="6"/>
+      <c r="AI35" s="6"/>
+      <c r="AJ35" s="6"/>
+    </row>
+    <row r="36" spans="1:65" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="36"/>
+      <c r="P36" s="38"/>
+      <c r="Q36" s="26"/>
+      <c r="R36" s="26"/>
+      <c r="S36" s="26"/>
+      <c r="T36" s="36"/>
+      <c r="U36" s="6"/>
+      <c r="V36" s="6"/>
+      <c r="W36" s="6"/>
+      <c r="X36" s="6"/>
+      <c r="Y36" s="6"/>
+      <c r="Z36" s="6"/>
+      <c r="AA36" s="6"/>
+      <c r="AB36" s="6"/>
+      <c r="AC36" s="6"/>
+      <c r="AD36" s="6"/>
+      <c r="AE36" s="6"/>
+      <c r="AF36" s="6"/>
+      <c r="AG36" s="6"/>
+      <c r="AH36" s="6"/>
+      <c r="AI36" s="6"/>
+      <c r="AJ36" s="6"/>
+      <c r="AK36" s="6"/>
+    </row>
+    <row r="37" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="O37" s="36"/>
+      <c r="P37" s="36"/>
+      <c r="Q37" s="36"/>
+      <c r="R37" s="36"/>
+      <c r="S37" s="36"/>
+      <c r="T37" s="36"/>
+    </row>
+    <row r="38" spans="1:65" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="11"/>
+      <c r="T38" s="36"/>
+      <c r="U38" s="6"/>
+      <c r="V38" s="6"/>
+      <c r="W38" s="6"/>
+      <c r="X38" s="6"/>
+      <c r="Y38" s="6"/>
+      <c r="Z38" s="6"/>
+      <c r="AA38" s="6"/>
+      <c r="AB38" s="6"/>
+      <c r="AC38" s="6"/>
+      <c r="AD38" s="6"/>
+      <c r="AE38" s="6"/>
+      <c r="AF38" s="6"/>
+      <c r="AG38" s="6"/>
+      <c r="AH38" s="6"/>
+      <c r="AI38" s="6"/>
+      <c r="AJ38" s="6"/>
+      <c r="AK38" s="6"/>
+      <c r="AL38" s="6"/>
+      <c r="AM38" s="6"/>
+      <c r="AN38" s="6"/>
+      <c r="AO38" s="6"/>
+      <c r="AP38" s="6"/>
+      <c r="AQ38" s="6"/>
+      <c r="AR38" s="6"/>
+      <c r="AS38" s="6"/>
+      <c r="AT38" s="6"/>
+      <c r="AU38" s="6"/>
+      <c r="AV38" s="6"/>
+      <c r="AW38" s="6"/>
+      <c r="AX38" s="6"/>
+      <c r="AY38" s="6"/>
+      <c r="AZ38" s="6"/>
+      <c r="BA38" s="6"/>
+      <c r="BB38" s="6"/>
+      <c r="BC38" s="6"/>
+      <c r="BD38" s="6"/>
+      <c r="BE38" s="6"/>
+      <c r="BF38" s="6"/>
+      <c r="BG38" s="6"/>
+      <c r="BH38" s="6"/>
+      <c r="BI38" s="6"/>
+      <c r="BJ38" s="6"/>
+      <c r="BK38" s="6"/>
+      <c r="BL38" s="6"/>
+      <c r="BM38" s="6"/>
+    </row>
+    <row r="39" spans="1:65" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="T39" s="36"/>
+      <c r="U39" s="6"/>
+      <c r="V39" s="6"/>
+      <c r="W39" s="6"/>
+      <c r="X39" s="6"/>
+      <c r="Y39" s="6"/>
+      <c r="Z39" s="6"/>
+      <c r="AA39" s="6"/>
+      <c r="AB39" s="6"/>
+      <c r="AC39" s="6"/>
+      <c r="AD39" s="6"/>
+      <c r="AE39" s="6"/>
+      <c r="AF39" s="6"/>
+      <c r="AG39" s="6"/>
+      <c r="AH39" s="6"/>
+      <c r="AI39" s="6"/>
+      <c r="AJ39" s="6"/>
+      <c r="AK39" s="6"/>
+      <c r="AL39" s="6"/>
+      <c r="AM39" s="6"/>
+      <c r="AN39" s="6"/>
+      <c r="AO39" s="6"/>
+      <c r="AP39" s="6"/>
+      <c r="AQ39" s="6"/>
+      <c r="AR39" s="6"/>
+      <c r="AS39" s="6"/>
+      <c r="AT39" s="6"/>
+      <c r="AU39" s="6"/>
+      <c r="AV39" s="6"/>
+      <c r="AW39" s="6"/>
+      <c r="AX39" s="6"/>
+      <c r="AY39" s="6"/>
+      <c r="AZ39" s="6"/>
+      <c r="BA39" s="6"/>
+      <c r="BB39" s="6"/>
+      <c r="BC39" s="6"/>
+      <c r="BD39" s="6"/>
+      <c r="BE39" s="6"/>
+      <c r="BF39" s="6"/>
+      <c r="BG39" s="6"/>
+      <c r="BH39" s="6"/>
+      <c r="BI39" s="6"/>
+      <c r="BJ39" s="6"/>
+      <c r="BK39" s="6"/>
+      <c r="BL39" s="6"/>
+      <c r="BM39" s="6"/>
+    </row>
+    <row r="40" spans="1:65" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="T40" s="36"/>
+      <c r="U40" s="6"/>
+      <c r="V40" s="6"/>
+      <c r="W40" s="6"/>
+      <c r="X40" s="6"/>
+      <c r="Y40" s="6"/>
+      <c r="Z40" s="6"/>
+      <c r="AA40" s="6"/>
+      <c r="AB40" s="6"/>
+      <c r="AC40" s="6"/>
+      <c r="AD40" s="6"/>
+      <c r="AE40" s="6"/>
+      <c r="AF40" s="6"/>
+      <c r="AG40" s="6"/>
+      <c r="AH40" s="6"/>
+      <c r="AI40" s="6"/>
+      <c r="AJ40" s="6"/>
+      <c r="AK40" s="6"/>
+      <c r="AL40" s="6"/>
+      <c r="AM40" s="6"/>
+      <c r="AN40" s="6"/>
+      <c r="AO40" s="6"/>
+      <c r="AP40" s="6"/>
+      <c r="AQ40" s="6"/>
+      <c r="AR40" s="6"/>
+      <c r="AS40" s="6"/>
+      <c r="AT40" s="6"/>
+      <c r="AU40" s="6"/>
+      <c r="AV40" s="6"/>
+      <c r="AW40" s="6"/>
+      <c r="AX40" s="6"/>
+      <c r="AY40" s="6"/>
+      <c r="AZ40" s="6"/>
+      <c r="BA40" s="6"/>
+      <c r="BB40" s="6"/>
+      <c r="BC40" s="6"/>
+      <c r="BD40" s="6"/>
+      <c r="BE40" s="6"/>
+      <c r="BF40" s="6"/>
+      <c r="BG40" s="6"/>
+      <c r="BH40" s="6"/>
+      <c r="BI40" s="6"/>
+      <c r="BJ40" s="6"/>
+      <c r="BK40" s="6"/>
+      <c r="BL40" s="6"/>
+      <c r="BM40" s="6"/>
+    </row>
+    <row r="41" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="O41" s="36"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="10"/>
+      <c r="T41" s="36"/>
+    </row>
+    <row r="42" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="O42" s="36"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="26"/>
+      <c r="R42" s="26"/>
+      <c r="S42" s="26"/>
+      <c r="T42" s="36"/>
+    </row>
+    <row r="43" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="O43" s="36"/>
+      <c r="P43" s="38"/>
+      <c r="Q43" s="26"/>
+      <c r="R43" s="26"/>
+      <c r="S43" s="26"/>
+      <c r="T43" s="36"/>
+    </row>
+    <row r="44" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="O44" s="36"/>
+      <c r="P44" s="38"/>
+      <c r="Q44" s="26"/>
+      <c r="R44" s="26"/>
+      <c r="S44" s="26"/>
+      <c r="T44" s="36"/>
+    </row>
+    <row r="45" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="O45" s="36"/>
+      <c r="P45" s="36"/>
+      <c r="Q45" s="36"/>
+      <c r="R45" s="36"/>
+      <c r="S45" s="36"/>
+      <c r="T45" s="36"/>
+    </row>
+    <row r="46" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="O46" s="36"/>
+      <c r="P46" s="36"/>
+      <c r="Q46" s="36"/>
+      <c r="R46" s="36"/>
+      <c r="S46" s="36"/>
+      <c r="T46" s="36"/>
+    </row>
+    <row r="47" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+    </row>
+    <row r="61" spans="15:19" x14ac:dyDescent="0.2">
+      <c r="O61" s="4"/>
+      <c r="P61" s="5"/>
+      <c r="Q61" s="5"/>
+      <c r="R61" s="4"/>
+      <c r="S61" s="4"/>
+    </row>
+    <row r="62" spans="15:19" x14ac:dyDescent="0.2">
+      <c r="O62" s="7"/>
+    </row>
+    <row r="63" spans="15:19" x14ac:dyDescent="0.2">
+      <c r="O63" s="10"/>
+      <c r="P63"/>
+      <c r="Q63"/>
+      <c r="R63" s="11"/>
+      <c r="S63" s="11"/>
+    </row>
+    <row r="64" spans="15:19" x14ac:dyDescent="0.2">
+      <c r="O64" s="7"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="7"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O66" s="7"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O67" s="7"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="7"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+      <c r="O70" s="7"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>